--- a/form-files/selects/selects.xlsx
+++ b/form-files/selects/selects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58" count="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62" count="74">
   <si>
     <t>comments</t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t>callback</t>
+  </si>
+  <si>
+    <t>param.format</t>
+  </si>
+  <si>
+    <t>param.q</t>
   </si>
   <si>
     <t>states</t>
@@ -170,6 +176,12 @@
   </si>
   <si>
     <t>"https://query.yahooapis.com/v1/public/yql?format=json&amp;q=" +  encodeURIComponent("select * from geo.states where place='" + data('state') + "'")</t>
+  </si>
+  <si>
+    <t>odk_values</t>
+  </si>
+  <si>
+    <t>odkquery://table_id/elementKey1/elementKey5/?selection=encodeURIComponent('elementKey2=? and elementKey3&gt;5')&amp;selectionArgs=encodeURIComponent(JSON.stringify([data('state')])</t>
   </si>
   <si>
     <t>setting</t>
@@ -692,27 +704,41 @@
       <c t="s" r="C1">
         <v>45</v>
       </c>
+      <c t="s" r="D1">
+        <v>46</v>
+      </c>
+      <c t="s" r="E1">
+        <v>47</v>
+      </c>
     </row>
     <row r="2">
       <c t="s" r="A2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c t="s" r="B2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c t="s" r="C2">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c t="s" r="A3">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c t="s" r="B3">
+        <v>52</v>
+      </c>
+      <c t="s" r="C3">
         <v>50</v>
       </c>
-      <c t="s" r="C3">
-        <v>48</v>
+    </row>
+    <row r="5">
+      <c t="s" r="A5">
+        <v>53</v>
+      </c>
+      <c t="s" r="B5">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -728,25 +754,25 @@
   <sheetData>
     <row r="1">
       <c t="s" s="2" r="A1">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c t="s" s="2" r="B1">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c s="2" r="C1"/>
     </row>
     <row r="2">
       <c t="s" s="2" r="A2">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c t="s" s="2" r="B2">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c s="2" r="C2"/>
     </row>
     <row r="3">
       <c t="s" s="2" r="A3">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -754,10 +780,10 @@
     </row>
     <row r="4">
       <c t="s" r="A4">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c t="s" r="B4">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">

--- a/form-files/selects/selects.xlsx
+++ b/form-files/selects/selects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73" count="95">
   <si>
     <t>comments</t>
   </si>
@@ -22,6 +22,9 @@
     <t>type</t>
   </si>
   <si>
+    <t>appearance</t>
+  </si>
+  <si>
     <t>condition</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t>select_one birds</t>
   </si>
   <si>
+    <t>grid</t>
+  </si>
+  <si>
     <t>bird</t>
   </si>
   <si>
@@ -85,6 +91,24 @@
     <t>end screen</t>
   </si>
   <si>
+    <t>select_one yes_no</t>
+  </si>
+  <si>
+    <t>inline</t>
+  </si>
+  <si>
+    <t>i1</t>
+  </si>
+  <si>
+    <t>Choose one:</t>
+  </si>
+  <si>
+    <t>i2</t>
+  </si>
+  <si>
+    <t>i3</t>
+  </si>
+  <si>
     <t>list_name</t>
   </si>
   <si>
@@ -148,16 +172,25 @@
     <t>media/jay.png</t>
   </si>
   <si>
+    <t>yes_no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>uri</t>
   </si>
   <si>
     <t>callback</t>
-  </si>
-  <si>
-    <t>param.format</t>
-  </si>
-  <si>
-    <t>param.q</t>
   </si>
   <si>
     <t>states</t>
@@ -181,7 +214,7 @@
     <t>odk_values</t>
   </si>
   <si>
-    <t>odkquery://table_id/elementKey1/elementKey5/?selection=encodeURIComponent('elementKey2=? and elementKey3&gt;5')&amp;selectionArgs=encodeURIComponent(JSON.stringify([data('state')])</t>
+    <t>"content://com.opendatakit.tables.ContentProvider/database_id/table_id/row_id"</t>
   </si>
   <si>
     <t>setting</t>
@@ -415,9 +448,9 @@
   <cols>
     <col max="1" min="1" customWidth="1" width="34.29"/>
     <col max="2" min="2" customWidth="1" width="35.0"/>
-    <col max="3" min="3" customWidth="1" width="38.71"/>
-    <col max="4" min="4" customWidth="1" width="32.71"/>
-    <col max="5" min="5" customWidth="1" width="37.71"/>
+    <col max="4" min="4" customWidth="1" width="38.71"/>
+    <col max="5" min="5" customWidth="1" width="32.71"/>
+    <col max="6" min="6" customWidth="1" width="37.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -436,97 +469,145 @@
       <c t="s" r="E1">
         <v>4</v>
       </c>
+      <c t="s" r="F1">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c t="s" s="12" r="A2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c t="s" r="B2">
-        <v>6</v>
-      </c>
-      <c t="s" r="D2">
         <v>7</v>
       </c>
       <c t="s" r="E2">
         <v>8</v>
+      </c>
+      <c t="s" r="F2">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c s="12" r="A3"/>
       <c t="s" r="B3">
-        <v>9</v>
-      </c>
-      <c t="s" r="D3">
         <v>10</v>
       </c>
       <c t="s" r="E3">
         <v>11</v>
       </c>
+      <c t="s" r="F3">
+        <v>12</v>
+      </c>
     </row>
     <row r="4">
       <c t="s" s="12" r="A4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="B4">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c s="12" r="A5"/>
       <c t="s" r="B5">
-        <v>14</v>
-      </c>
-      <c t="s" r="D5">
         <v>15</v>
       </c>
+      <c t="s" r="C5">
+        <v>16</v>
+      </c>
       <c t="s" r="E5">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c t="s" r="F5">
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c s="12" r="A6"/>
       <c t="s" r="B6">
-        <v>17</v>
-      </c>
-      <c t="s" r="C6">
-        <v>18</v>
-      </c>
-      <c t="s" r="E6">
         <v>19</v>
+      </c>
+      <c t="s" r="D6">
+        <v>20</v>
+      </c>
+      <c t="s" r="F6">
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c s="12" r="A7"/>
       <c t="s" r="B7">
-        <v>17</v>
-      </c>
-      <c t="s" r="C7">
-        <v>20</v>
-      </c>
-      <c t="s" r="E7">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c t="s" r="D7">
+        <v>22</v>
+      </c>
+      <c t="s" r="F7">
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c s="12" r="A8"/>
       <c t="s" r="B8">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c s="12" r="A9"/>
+      <c t="s" r="B9">
+        <v>14</v>
+      </c>
     </row>
     <row r="10">
       <c s="12" r="A10"/>
+      <c t="s" r="B10">
+        <v>25</v>
+      </c>
+      <c t="s" r="C10">
+        <v>26</v>
+      </c>
+      <c t="s" r="E10">
+        <v>27</v>
+      </c>
+      <c t="s" r="F10">
+        <v>28</v>
+      </c>
     </row>
     <row r="11">
       <c s="12" r="A11"/>
+      <c t="s" r="B11">
+        <v>25</v>
+      </c>
+      <c t="s" r="C11">
+        <v>26</v>
+      </c>
+      <c t="s" r="E11">
+        <v>29</v>
+      </c>
+      <c t="s" r="F11">
+        <v>28</v>
+      </c>
     </row>
     <row r="12">
       <c s="12" r="A12"/>
+      <c t="s" r="B12">
+        <v>25</v>
+      </c>
+      <c t="s" r="C12">
+        <v>26</v>
+      </c>
+      <c t="s" r="E12">
+        <v>30</v>
+      </c>
+      <c t="s" r="F12">
+        <v>28</v>
+      </c>
     </row>
     <row r="13">
       <c s="12" r="A13"/>
+      <c t="s" r="B13">
+        <v>24</v>
+      </c>
     </row>
     <row r="14">
       <c s="12" r="A14"/>
@@ -571,112 +652,137 @@
   <sheetData>
     <row r="1">
       <c t="s" r="A1">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c t="s" r="B1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c t="s" r="C1">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c t="s" r="D1">
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c t="s" r="A2">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c t="s" r="B2">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c t="s" r="C2">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c t="s" r="A3">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c t="s" r="B3">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c t="s" r="C3">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c t="s" r="A4">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c t="s" r="B4">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c t="s" r="C4">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c t="s" r="A5">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c t="s" r="B5">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c t="s" r="C5">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c t="s" r="A6">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c t="s" r="B6">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c t="s" r="C6">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
       <c t="s" r="A7">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c t="s" r="B7">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c t="s" r="C7">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
       <c t="s" r="A8">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c t="s" r="B8">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c t="s" r="C8">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
       <c t="s" r="A9">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c t="s" r="B9">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c t="s" r="C9">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
       <c t="s" r="A10">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c t="s" r="B10">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c t="s" r="C10">
-        <v>43</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12">
+      <c t="s" r="A12">
+        <v>52</v>
+      </c>
+      <c t="s" r="B12">
+        <v>53</v>
+      </c>
+      <c t="s" r="D12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c t="s" r="A13">
+        <v>52</v>
+      </c>
+      <c t="s" r="B13">
+        <v>55</v>
+      </c>
+      <c t="s" r="D13">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -690,55 +796,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" defaultColWidth="17.14" customHeight="1"/>
   <cols>
-    <col max="2" min="2" customWidth="1" width="39.14"/>
+    <col max="2" min="2" customWidth="1" width="71.29"/>
     <col max="3" min="3" customWidth="1" width="35.14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c t="s" r="A1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c t="s" r="B1">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c t="s" r="C1">
-        <v>45</v>
-      </c>
-      <c t="s" r="D1">
-        <v>46</v>
-      </c>
-      <c t="s" r="E1">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c t="s" r="A2">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c t="s" r="B2">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c t="s" r="C2">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
       <c t="s" r="A3">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c t="s" r="B3">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c t="s" r="C3">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
       <c t="s" r="A5">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c t="s" r="B5">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -754,25 +854,25 @@
   <sheetData>
     <row r="1">
       <c t="s" s="2" r="A1">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c t="s" s="2" r="B1">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c s="2" r="C1"/>
     </row>
     <row r="2">
       <c t="s" s="2" r="A2">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c t="s" s="2" r="B2">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c s="2" r="C2"/>
     </row>
     <row r="3">
       <c t="s" s="2" r="A3">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -780,10 +880,10 @@
     </row>
     <row r="4">
       <c t="s" r="A4">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c t="s" r="B4">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">

--- a/form-files/selects/selects.xlsx
+++ b/form-files/selects/selects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73" count="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86" count="111">
   <si>
     <t>comments</t>
   </si>
@@ -109,6 +109,24 @@
     <t>i3</t>
   </si>
   <si>
+    <t>select_one_with_other colors</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>What is your favorite color?</t>
+  </si>
+  <si>
+    <t>selected function with arguement not included in choices.</t>
+  </si>
+  <si>
+    <t>selected(data('color'), 'teal')</t>
+  </si>
+  <si>
+    <t>Teal is a good choice.</t>
+  </si>
+  <si>
     <t>list_name</t>
   </si>
   <si>
@@ -185,6 +203,27 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>Blue</t>
   </si>
   <si>
     <t>uri</t>
@@ -611,9 +650,29 @@
     </row>
     <row r="14">
       <c s="12" r="A14"/>
+      <c t="s" r="B14">
+        <v>31</v>
+      </c>
+      <c t="s" r="E14">
+        <v>32</v>
+      </c>
+      <c t="s" r="F14">
+        <v>33</v>
+      </c>
     </row>
     <row r="15">
-      <c s="12" r="A15"/>
+      <c t="s" s="12" r="A15">
+        <v>34</v>
+      </c>
+      <c t="s" r="B15">
+        <v>19</v>
+      </c>
+      <c t="s" r="D15">
+        <v>35</v>
+      </c>
+      <c t="s" r="F15">
+        <v>36</v>
+      </c>
     </row>
     <row r="16">
       <c s="12" r="A16"/>
@@ -652,13 +711,13 @@
   <sheetData>
     <row r="1">
       <c t="s" r="A1">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c t="s" r="B1">
         <v>4</v>
       </c>
       <c t="s" r="C1">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c t="s" r="D1">
         <v>5</v>
@@ -666,123 +725,156 @@
     </row>
     <row r="2">
       <c t="s" r="A2">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c t="s" r="B2">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c t="s" r="C2">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c t="s" r="A3">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c t="s" r="B3">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c t="s" r="C3">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c t="s" r="A4">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c t="s" r="B4">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c t="s" r="C4">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c t="s" r="A5">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c t="s" r="B5">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c t="s" r="C5">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
       <c t="s" r="A6">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c t="s" r="B6">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c t="s" r="C6">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
       <c t="s" r="A7">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c t="s" r="B7">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c t="s" r="C7">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c t="s" r="A8">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c t="s" r="B8">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c t="s" r="C8">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
       <c t="s" r="A9">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c t="s" r="B9">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c t="s" r="C9">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c t="s" r="A10">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c t="s" r="B10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c t="s" r="C10">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
       <c t="s" r="A12">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c t="s" r="B12">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c t="s" r="D12">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c t="s" r="A13">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c t="s" r="B13">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c t="s" r="D13">
-        <v>56</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15">
+      <c t="s" r="A15">
+        <v>63</v>
+      </c>
+      <c t="s" r="B15">
+        <v>64</v>
+      </c>
+      <c t="s" r="D15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16">
+      <c t="s" r="A16">
+        <v>63</v>
+      </c>
+      <c t="s" r="B16">
+        <v>66</v>
+      </c>
+      <c t="s" r="D16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17">
+      <c t="s" r="A17">
+        <v>63</v>
+      </c>
+      <c t="s" r="B17">
+        <v>68</v>
+      </c>
+      <c t="s" r="D17">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -805,40 +897,40 @@
         <v>4</v>
       </c>
       <c t="s" r="B1">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c t="s" r="C1">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2">
       <c t="s" r="A2">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c t="s" r="B2">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c t="s" r="C2">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c t="s" r="A3">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c t="s" r="B3">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c t="s" r="C3">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c t="s" r="A5">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c t="s" r="B5">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -854,25 +946,25 @@
   <sheetData>
     <row r="1">
       <c t="s" s="2" r="A1">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c t="s" s="2" r="B1">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c s="2" r="C1"/>
     </row>
     <row r="2">
       <c t="s" s="2" r="A2">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c t="s" s="2" r="B2">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c s="2" r="C2"/>
     </row>
     <row r="3">
       <c t="s" s="2" r="A3">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -880,10 +972,10 @@
     </row>
     <row r="4">
       <c t="s" r="A4">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c t="s" r="B4">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">

--- a/form-files/selects/selects.xlsx
+++ b/form-files/selects/selects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86" count="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94" count="120">
   <si>
     <t>comments</t>
   </si>
@@ -25,6 +25,9 @@
     <t>appearance</t>
   </si>
   <si>
+    <t>inputAttributes.data-type</t>
+  </si>
+  <si>
     <t>condition</t>
   </si>
   <si>
@@ -125,6 +128,24 @@
   </si>
   <si>
     <t>Teal is a good choice.</t>
+  </si>
+  <si>
+    <t>horizontal</t>
+  </si>
+  <si>
+    <t>h_select</t>
+  </si>
+  <si>
+    <t>Horizontal select example.</t>
+  </si>
+  <si>
+    <t>select_one content_provider_test</t>
+  </si>
+  <si>
+    <t>cp_test</t>
+  </si>
+  <si>
+    <t>This demos a content provider query.</t>
   </si>
   <si>
     <t>list_name</t>
@@ -250,10 +271,13 @@
     <t>"https://query.yahooapis.com/v1/public/yql?format=json&amp;q=" +  encodeURIComponent("select * from geo.states where place='" + data('state') + "'")</t>
   </si>
   <si>
-    <t>odk_values</t>
+    <t>content_provider_test</t>
   </si>
   <si>
     <t>"content://com.opendatakit.tables.ContentProvider/database_id/table_id/row_id"</t>
+  </si>
+  <si>
+    <t>[{ name: "test", label : JSON.stringify(context) }]</t>
   </si>
   <si>
     <t>setting</t>
@@ -487,9 +511,10 @@
   <cols>
     <col max="1" min="1" customWidth="1" width="34.29"/>
     <col max="2" min="2" customWidth="1" width="35.0"/>
-    <col max="4" min="4" customWidth="1" width="38.71"/>
-    <col max="5" min="5" customWidth="1" width="32.71"/>
-    <col max="6" min="6" customWidth="1" width="37.71"/>
+    <col max="4" min="4" customWidth="1" width="20.71"/>
+    <col max="5" min="5" customWidth="1" width="38.71"/>
+    <col max="6" min="6" customWidth="1" width="32.71"/>
+    <col max="7" min="7" customWidth="1" width="46.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -511,174 +536,198 @@
       <c t="s" r="F1">
         <v>5</v>
       </c>
+      <c t="s" r="G1">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c t="s" s="12" r="A2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c t="s" r="B2">
-        <v>7</v>
-      </c>
-      <c t="s" r="E2">
         <v>8</v>
       </c>
       <c t="s" r="F2">
         <v>9</v>
+      </c>
+      <c t="s" r="G2">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c s="12" r="A3"/>
       <c t="s" r="B3">
-        <v>10</v>
-      </c>
-      <c t="s" r="E3">
         <v>11</v>
       </c>
       <c t="s" r="F3">
         <v>12</v>
       </c>
+      <c t="s" r="G3">
+        <v>13</v>
+      </c>
     </row>
     <row r="4">
       <c t="s" s="12" r="A4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c t="s" r="B4">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c s="12" r="A5"/>
       <c t="s" r="B5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c t="s" r="C5">
-        <v>16</v>
-      </c>
-      <c t="s" r="E5">
         <v>17</v>
       </c>
       <c t="s" r="F5">
         <v>18</v>
+      </c>
+      <c t="s" r="G5">
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c s="12" r="A6"/>
       <c t="s" r="B6">
-        <v>19</v>
-      </c>
-      <c t="s" r="D6">
         <v>20</v>
       </c>
-      <c t="s" r="F6">
+      <c t="s" r="E6">
         <v>21</v>
+      </c>
+      <c t="s" r="G6">
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c s="12" r="A7"/>
       <c t="s" r="B7">
-        <v>19</v>
-      </c>
-      <c t="s" r="D7">
-        <v>22</v>
-      </c>
-      <c t="s" r="F7">
+        <v>20</v>
+      </c>
+      <c t="s" r="E7">
         <v>23</v>
+      </c>
+      <c t="s" r="G7">
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c s="12" r="A8"/>
       <c t="s" r="B8">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c s="12" r="A9"/>
       <c t="s" r="B9">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c s="12" r="A10"/>
       <c t="s" r="B10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="C10">
-        <v>26</v>
-      </c>
-      <c t="s" r="E10">
         <v>27</v>
       </c>
       <c t="s" r="F10">
         <v>28</v>
+      </c>
+      <c t="s" r="G10">
+        <v>29</v>
       </c>
     </row>
     <row r="11">
       <c s="12" r="A11"/>
       <c t="s" r="B11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="C11">
-        <v>26</v>
-      </c>
-      <c t="s" r="E11">
+        <v>27</v>
+      </c>
+      <c t="s" r="F11">
+        <v>30</v>
+      </c>
+      <c t="s" r="G11">
         <v>29</v>
-      </c>
-      <c t="s" r="F11">
-        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c s="12" r="A12"/>
       <c t="s" r="B12">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="C12">
-        <v>26</v>
-      </c>
-      <c t="s" r="E12">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c t="s" r="F12">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c t="s" r="G12">
+        <v>29</v>
       </c>
     </row>
     <row r="13">
       <c s="12" r="A13"/>
       <c t="s" r="B13">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c s="12" r="A14"/>
       <c t="s" r="B14">
-        <v>31</v>
-      </c>
-      <c t="s" r="E14">
         <v>32</v>
       </c>
       <c t="s" r="F14">
         <v>33</v>
       </c>
+      <c t="s" r="G14">
+        <v>34</v>
+      </c>
     </row>
     <row r="15">
       <c t="s" s="12" r="A15">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="B15">
-        <v>19</v>
-      </c>
-      <c t="s" r="D15">
-        <v>35</v>
-      </c>
-      <c t="s" r="F15">
+        <v>20</v>
+      </c>
+      <c t="s" r="E15">
         <v>36</v>
+      </c>
+      <c t="s" r="G15">
+        <v>37</v>
       </c>
     </row>
     <row r="16">
       <c s="12" r="A16"/>
+      <c t="s" r="B16">
+        <v>26</v>
+      </c>
+      <c t="s" r="D16">
+        <v>38</v>
+      </c>
+      <c t="s" r="F16">
+        <v>39</v>
+      </c>
+      <c t="s" r="G16">
+        <v>40</v>
+      </c>
     </row>
     <row r="17">
       <c s="12" r="A17"/>
+      <c t="s" r="B17">
+        <v>41</v>
+      </c>
+      <c t="s" r="F17">
+        <v>42</v>
+      </c>
+      <c t="s" r="G17">
+        <v>43</v>
+      </c>
     </row>
     <row r="18">
       <c s="12" r="A18"/>
@@ -711,170 +760,170 @@
   <sheetData>
     <row r="1">
       <c t="s" r="A1">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c t="s" r="B1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c t="s" r="C1">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c t="s" r="D1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c t="s" r="A2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c t="s" r="B2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c t="s" r="C2">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c t="s" r="A3">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c t="s" r="B3">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c t="s" r="C3">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c t="s" r="A4">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c t="s" r="B4">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c t="s" r="C4">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c t="s" r="A5">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c t="s" r="B5">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c t="s" r="C5">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c t="s" r="A6">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c t="s" r="B6">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c t="s" r="C6">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
       <c t="s" r="A7">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c t="s" r="B7">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c t="s" r="C7">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c t="s" r="A8">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c t="s" r="B8">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c t="s" r="C8">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c t="s" r="A9">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c t="s" r="B9">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c t="s" r="C9">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c t="s" r="A10">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c t="s" r="B10">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c t="s" r="C10">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c t="s" r="A12">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c t="s" r="B12">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c t="s" r="D12">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
       <c t="s" r="A13">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c t="s" r="B13">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c t="s" r="D13">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
       <c t="s" r="A15">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c t="s" r="B15">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c t="s" r="D15">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
       <c t="s" r="A16">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c t="s" r="B16">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c t="s" r="D16">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c t="s" r="A17">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c t="s" r="B17">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c t="s" r="D17">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -894,43 +943,46 @@
   <sheetData>
     <row r="1">
       <c t="s" r="A1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c t="s" r="B1">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c t="s" r="C1">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c t="s" r="A2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c t="s" r="B2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c t="s" r="C2">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c t="s" r="A3">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c t="s" r="B3">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c t="s" r="C3">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c t="s" r="A5">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c t="s" r="B5">
-        <v>78</v>
+        <v>85</v>
+      </c>
+      <c t="s" r="C5">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -946,25 +998,25 @@
   <sheetData>
     <row r="1">
       <c t="s" s="2" r="A1">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c t="s" s="2" r="B1">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c s="2" r="C1"/>
     </row>
     <row r="2">
       <c t="s" s="2" r="A2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c t="s" s="2" r="B2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c s="2" r="C2"/>
     </row>
     <row r="3">
       <c t="s" s="2" r="A3">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -972,10 +1024,10 @@
     </row>
     <row r="4">
       <c t="s" r="A4">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c t="s" r="B4">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6">

--- a/form-files/selects/selects.xlsx
+++ b/form-files/selects/selects.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="516" yWindow="504" windowWidth="18876" windowHeight="8940"/>
+  </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="choices" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="queries" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="settings" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="survey" sheetId="1" r:id="rId1"/>
+    <sheet name="choices" sheetId="2" r:id="rId2"/>
+    <sheet name="queries" sheetId="3" r:id="rId3"/>
+    <sheet name="settings" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86" count="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>comments</t>
   </si>
@@ -276,142 +279,51 @@
   <si>
     <t>Select Examples</t>
   </si>
+  <si>
+    <t>select_one_with_other yes_no</t>
+  </si>
+  <si>
+    <t>i4</t>
+  </si>
+  <si>
+    <t>i5</t>
+  </si>
+  <si>
+    <t>otherBird</t>
+  </si>
+  <si>
+    <t>select_multiple birds</t>
+  </si>
+  <si>
+    <t>altBird</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="18.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE5CD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCFE2F3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCFE2F3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,620 +340,952 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" xfId="0" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="2" fillId="2" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="3" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="4" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="4" fillId="5" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="6" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="7" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="8" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="5" fillId="9" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="10" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="6" fillId="11" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" defaultColWidth="17.14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col max="1" min="1" customWidth="1" width="34.29"/>
-    <col max="2" min="2" customWidth="1" width="35.0"/>
-    <col max="4" min="4" customWidth="1" width="38.71"/>
-    <col max="5" min="5" customWidth="1" width="32.71"/>
-    <col max="6" min="6" customWidth="1" width="37.71"/>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c t="s" s="12" r="A1">
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c t="s" s="12" r="A2">
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c t="s" r="B2">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c t="s" r="E2">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c t="s" r="F2">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c s="12" r="A3"/>
-      <c t="s" r="B3">
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c t="s" r="E3">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c t="s" r="F3">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4">
-      <c t="s" s="12" r="A4">
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="B4">
+      <c r="B4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5">
-      <c s="12" r="A5"/>
-      <c t="s" r="B5">
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c t="s" r="C5">
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c t="s" r="E5">
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c t="s" r="F5">
+      <c r="F5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6">
-      <c s="12" r="A6"/>
-      <c t="s" r="B6">
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c t="s" r="D6">
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c t="s" r="F6">
+      <c r="F6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7">
-      <c s="12" r="A7"/>
-      <c t="s" r="B7">
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c t="s" r="D7">
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c t="s" r="F7">
+      <c r="F7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8">
-      <c s="12" r="A8"/>
-      <c t="s" r="B8">
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9">
-      <c s="12" r="A9"/>
-      <c t="s" r="B9">
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10">
-      <c s="12" r="A10"/>
-      <c t="s" r="B10">
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c t="s" r="C10">
+      <c r="C14" t="s">
         <v>26</v>
       </c>
-      <c t="s" r="E10">
+      <c r="E14" t="s">
         <v>27</v>
       </c>
-      <c t="s" r="F10">
+      <c r="F14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11">
-      <c s="12" r="A11"/>
-      <c t="s" r="B11">
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c t="s" r="C11">
+      <c r="C15" t="s">
         <v>26</v>
       </c>
-      <c t="s" r="E11">
+      <c r="E15" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="F11">
+      <c r="F15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12">
-      <c s="12" r="A12"/>
-      <c t="s" r="B12">
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c t="s" r="C12">
+      <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c t="s" r="E12">
+      <c r="E16" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="F12">
+      <c r="F16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13">
-      <c s="12" r="A13"/>
-      <c t="s" r="B13">
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14">
-      <c s="12" r="A14"/>
-      <c t="s" r="B14">
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" t="s">
         <v>31</v>
       </c>
-      <c t="s" r="E14">
+      <c r="E20" t="s">
         <v>32</v>
       </c>
-      <c t="s" r="F14">
+      <c r="F20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15">
-      <c t="s" s="12" r="A15">
+    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>34</v>
       </c>
-      <c t="s" r="B15">
+      <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c t="s" r="D15">
+      <c r="D21" t="s">
         <v>35</v>
       </c>
-      <c t="s" r="F15">
+      <c r="F21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16">
-      <c s="12" r="A16"/>
-    </row>
-    <row r="17">
-      <c s="12" r="A17"/>
-    </row>
-    <row r="18">
-      <c s="12" r="A18"/>
-    </row>
-    <row r="19">
-      <c s="12" r="A19"/>
-    </row>
-    <row r="20">
-      <c s="12" r="A20"/>
-    </row>
-    <row r="21">
-      <c s="12" r="A21"/>
-    </row>
-    <row r="22">
-      <c s="12" r="A22"/>
-    </row>
-    <row r="23">
-      <c s="12" r="A23"/>
+    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" defaultColWidth="17.14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c t="s" r="A1">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>37</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>38</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c t="s" r="A2">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>39</v>
       </c>
-      <c t="s" r="B2">
+      <c r="B2" t="s">
         <v>40</v>
       </c>
-      <c t="s" r="C2">
+      <c r="C2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3">
-      <c t="s" r="A3">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>39</v>
       </c>
-      <c t="s" r="B3">
+      <c r="B3" t="s">
         <v>42</v>
       </c>
-      <c t="s" r="C3">
+      <c r="C3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4">
-      <c t="s" r="A4">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>39</v>
       </c>
-      <c t="s" r="B4">
+      <c r="B4" t="s">
         <v>44</v>
       </c>
-      <c t="s" r="C4">
+      <c r="C4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5">
-      <c t="s" r="A5">
+    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c t="s" r="B5">
+      <c r="B5" t="s">
         <v>46</v>
       </c>
-      <c t="s" r="C5">
+      <c r="C5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6">
-      <c t="s" r="A6">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>39</v>
       </c>
-      <c t="s" r="B6">
+      <c r="B6" t="s">
         <v>48</v>
       </c>
-      <c t="s" r="C6">
+      <c r="C6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
-      <c t="s" r="A7">
+    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>39</v>
       </c>
-      <c t="s" r="B7">
+      <c r="B7" t="s">
         <v>50</v>
       </c>
-      <c t="s" r="C7">
+      <c r="C7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8">
-      <c t="s" r="A8">
+    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>39</v>
       </c>
-      <c t="s" r="B8">
+      <c r="B8" t="s">
         <v>52</v>
       </c>
-      <c t="s" r="C8">
+      <c r="C8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9">
-      <c t="s" r="A9">
+    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>39</v>
       </c>
-      <c t="s" r="B9">
+      <c r="B9" t="s">
         <v>54</v>
       </c>
-      <c t="s" r="C9">
+      <c r="C9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10">
-      <c t="s" r="A10">
+    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>39</v>
       </c>
-      <c t="s" r="B10">
+      <c r="B10" t="s">
         <v>56</v>
       </c>
-      <c t="s" r="C10">
+      <c r="C10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12">
-      <c t="s" r="A12">
+    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>58</v>
       </c>
-      <c t="s" r="B12">
+      <c r="B12" t="s">
         <v>59</v>
       </c>
-      <c t="s" r="D12">
+      <c r="D12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13">
-      <c t="s" r="A13">
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>58</v>
       </c>
-      <c t="s" r="B13">
+      <c r="B13" t="s">
         <v>61</v>
       </c>
-      <c t="s" r="D13">
+      <c r="D13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15">
-      <c t="s" r="A15">
+    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>63</v>
       </c>
-      <c t="s" r="B15">
+      <c r="B15" t="s">
         <v>64</v>
       </c>
-      <c t="s" r="D15">
+      <c r="D15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16">
-      <c t="s" r="A16">
+    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>63</v>
       </c>
-      <c t="s" r="B16">
+      <c r="B16" t="s">
         <v>66</v>
       </c>
-      <c t="s" r="D16">
+      <c r="D16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17">
-      <c t="s" r="A17">
+    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>63</v>
       </c>
-      <c t="s" r="B17">
+      <c r="B17" t="s">
         <v>68</v>
       </c>
-      <c t="s" r="D17">
+      <c r="D17" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" defaultColWidth="17.14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col max="2" min="2" customWidth="1" width="71.29"/>
-    <col max="3" min="3" customWidth="1" width="35.14"/>
+    <col min="2" max="2" width="71.33203125" customWidth="1"/>
+    <col min="3" max="3" width="35.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c t="s" r="A1">
+    <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>70</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2">
-      <c t="s" r="A2">
+    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>72</v>
       </c>
-      <c t="s" r="B2">
+      <c r="B2" t="s">
         <v>73</v>
       </c>
-      <c t="s" r="C2">
+      <c r="C2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3">
-      <c t="s" r="A3">
+    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>75</v>
       </c>
-      <c t="s" r="B3">
+      <c r="B3" t="s">
         <v>76</v>
       </c>
-      <c t="s" r="C3">
+      <c r="C3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5">
-      <c t="s" r="A5">
+    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>77</v>
       </c>
-      <c t="s" r="B5">
+      <c r="B5" t="s">
         <v>78</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" defaultColWidth="17.14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c t="s" s="2" r="A1">
+    <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
-      <c t="s" s="2" r="B1">
+      <c r="B1" s="1" t="s">
         <v>80</v>
       </c>
-      <c s="2" r="C1"/>
-    </row>
-    <row r="2">
-      <c t="s" s="2" r="A2">
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>81</v>
       </c>
-      <c t="s" s="2" r="B2">
+      <c r="B2" s="1" t="s">
         <v>82</v>
       </c>
-      <c s="2" r="C2"/>
-    </row>
-    <row r="3">
-      <c t="s" s="2" r="A3">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c t="s" r="A4">
+    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>84</v>
       </c>
-      <c t="s" r="B4">
+      <c r="B4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6">
-      <c s="2" r="A6"/>
-      <c s="2" r="B6"/>
-      <c s="2" r="C6"/>
-    </row>
-    <row r="7">
-      <c s="2" r="A7"/>
-      <c s="2" r="B7"/>
-      <c s="2" r="C7"/>
-    </row>
-    <row r="8">
-      <c s="2" r="A8"/>
-    </row>
-    <row r="9">
-      <c s="2" r="A9"/>
-    </row>
-    <row r="12">
-      <c s="2" r="A12"/>
-      <c s="2" r="B12"/>
-      <c s="2" r="C12"/>
-    </row>
-    <row r="13">
-      <c s="2" r="A13"/>
-      <c s="2" r="B13"/>
-      <c s="2" r="C13"/>
-    </row>
-    <row r="14">
-      <c s="2" r="A14"/>
-    </row>
-    <row r="15">
-      <c s="2" r="A15"/>
-    </row>
-    <row r="18">
-      <c s="2" r="A18"/>
-      <c s="2" r="B18"/>
-      <c s="2" r="C18"/>
-    </row>
-    <row r="19">
-      <c s="2" r="A19"/>
-      <c s="2" r="B19"/>
-      <c s="2" r="C19"/>
-    </row>
-    <row r="20">
-      <c s="2" r="A20"/>
-    </row>
-    <row r="21">
-      <c s="2" r="A21"/>
-    </row>
-    <row r="24">
-      <c s="2" r="A24"/>
-      <c s="2" r="B24"/>
-      <c s="2" r="C24"/>
-    </row>
-    <row r="25">
-      <c s="2" r="A25"/>
-      <c s="2" r="B25"/>
-      <c s="2" r="C25"/>
-    </row>
-    <row r="26">
-      <c s="2" r="A26"/>
-    </row>
-    <row r="27">
-      <c s="2" r="A27"/>
+    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="12" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="24" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/form-files/selects/selects.xlsx
+++ b/form-files/selects/selects.xlsx
@@ -3,10 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet name="survey" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="choices" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="queries" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="settings" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet sheetId="1" name="survey" state="visible" r:id="rId3"/>
+    <sheet sheetId="2" name="choices" state="visible" r:id="rId4"/>
+    <sheet sheetId="3" name="queries" state="visible" r:id="rId5"/>
+    <sheet sheetId="4" name="settings" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94" count="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="110">
   <si>
     <t>comments</t>
   </si>
@@ -37,6 +37,12 @@
     <t>label</t>
   </si>
   <si>
+    <t>hint</t>
+  </si>
+  <si>
+    <t>choice_filter</t>
+  </si>
+  <si>
     <t>Cascading select using remote data</t>
   </si>
   <si>
@@ -139,6 +145,32 @@
     <t>Horizontal select example.</t>
   </si>
   <si>
+    <t>select_one regions_csv</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>Choose a region:</t>
+  </si>
+  <si>
+    <t>select_one countries_csv</t>
+  </si>
+  <si>
+    <t>dropdown</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>Choose a country:</t>
+  </si>
+  <si>
+    <t>_.where(context, {
+  region: data('region')
+})</t>
+  </si>
+  <si>
     <t>select_one content_provider_test</t>
   </si>
   <si>
@@ -146,6 +178,9 @@
   </si>
   <si>
     <t>This demos a content provider query.</t>
+  </si>
+  <si>
+    <t>You will need to install a content provider app for the query to work. There is an example app available here: https://github.com/nathanathan/FileContentProviderExample</t>
   </si>
   <si>
     <t>list_name</t>
@@ -271,13 +306,34 @@
     <t>"https://query.yahooapis.com/v1/public/yql?format=json&amp;q=" +  encodeURIComponent("select * from geo.states where place='" + data('state') + "'")</t>
   </si>
   <si>
+    <t>countries_csv</t>
+  </si>
+  <si>
+    <t>"regions.csv"</t>
+  </si>
+  <si>
+    <t>_.chain(context).pluck('region').uniq().map(function(region){
+return {name:region, label:region};
+})</t>
+  </si>
+  <si>
+    <t>regions_csv</t>
+  </si>
+  <si>
+    <t>_.map(context, function(place){
+place.name = place.country;
+place.label = place.country;
+return place;
+})</t>
+  </si>
+  <si>
     <t>content_provider_test</t>
   </si>
   <si>
-    <t>"content://com.opendatakit.tables.ContentProvider/database_id/table_id/row_id"</t>
-  </si>
-  <si>
-    <t>[{ name: "test", label : JSON.stringify(context) }]</t>
+    <t>"content://org.opendatakit.FileContentProviderExample/"</t>
+  </si>
+  <si>
+    <t>[context]</t>
   </si>
   <si>
     <t>setting</t>
@@ -450,50 +506,50 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" xfId="0" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="2" fillId="2" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="3" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="4" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="4" fillId="5" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="6" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="7" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="8" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="5" fillId="9" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="10" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="6" fillId="11" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="10" borderId="0" fontId="0" applyNumberFormat="1">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="1">
+      <alignment vertical="center" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="2" applyFill="1">
+      <alignment vertical="center" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="3">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="4" applyFill="1">
+      <alignment vertical="center" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="6" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="7" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="8" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="9" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="5" applyFill="1">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="10" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="11" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="6" applyFill="1">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,14 +563,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" defaultColWidth="17.14" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
   <cols>
-    <col max="1" min="1" customWidth="1" width="34.29"/>
-    <col max="2" min="2" customWidth="1" width="35.0"/>
-    <col max="4" min="4" customWidth="1" width="20.71"/>
-    <col max="5" min="5" customWidth="1" width="38.71"/>
-    <col max="6" min="6" customWidth="1" width="32.71"/>
-    <col max="7" min="7" customWidth="1" width="46.0"/>
+    <col min="1" customWidth="1" max="1" width="34.29"/>
+    <col min="2" customWidth="1" max="2" width="35.0"/>
+    <col min="4" customWidth="1" max="4" width="20.71"/>
+    <col min="5" customWidth="1" max="5" width="38.71"/>
+    <col min="6" customWidth="1" max="6" width="32.71"/>
+    <col min="7" customWidth="1" max="7" width="46.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,201 +595,234 @@
       <c t="s" r="G1">
         <v>6</v>
       </c>
+      <c t="s" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" r="I1">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c t="s" s="12" r="A2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c t="s" r="B2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c t="s" r="F2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c t="s" r="G2">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c s="12" r="A3"/>
       <c t="s" r="B3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c t="s" r="F3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c t="s" r="G3">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c t="s" s="12" r="A4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c t="s" r="B4">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c s="12" r="A5"/>
       <c t="s" r="B5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c t="s" r="C5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c t="s" r="F5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c t="s" r="G5">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c s="12" r="A6"/>
       <c t="s" r="B6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c t="s" r="E6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c t="s" r="G6">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c s="12" r="A7"/>
       <c t="s" r="B7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c t="s" r="E7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c t="s" r="G7">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c s="12" r="A8"/>
       <c t="s" r="B8">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c s="12" r="A9"/>
       <c t="s" r="B9">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c s="12" r="A10"/>
       <c t="s" r="B10">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c t="s" r="C10">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c t="s" r="F10">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c t="s" r="G10">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c s="12" r="A11"/>
       <c t="s" r="B11">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c t="s" r="C11">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c t="s" r="F11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c t="s" r="G11">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c s="12" r="A12"/>
       <c t="s" r="B12">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c t="s" r="C12">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c t="s" r="F12">
+        <v>33</v>
+      </c>
+      <c t="s" r="G12">
         <v>31</v>
-      </c>
-      <c t="s" r="G12">
-        <v>29</v>
       </c>
     </row>
     <row r="13">
       <c s="12" r="A13"/>
       <c t="s" r="B13">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c s="12" r="A14"/>
       <c t="s" r="B14">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c t="s" r="F14">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c t="s" r="G14">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
       <c t="s" s="12" r="A15">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c t="s" r="B15">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c t="s" r="E15">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c t="s" r="G15">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
       <c s="12" r="A16"/>
       <c t="s" r="B16">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c t="s" r="D16">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c t="s" r="F16">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c t="s" r="G16">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
       <c s="12" r="A17"/>
       <c t="s" r="B17">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c t="s" r="F17">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c t="s" r="G17">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18">
       <c s="12" r="A18"/>
+      <c t="s" r="B18">
+        <v>46</v>
+      </c>
+      <c t="s" r="C18">
+        <v>47</v>
+      </c>
+      <c t="s" r="F18">
+        <v>48</v>
+      </c>
+      <c t="s" r="G18">
+        <v>49</v>
+      </c>
+      <c t="s" r="I18">
+        <v>50</v>
+      </c>
     </row>
     <row r="19">
       <c s="12" r="A19"/>
+      <c t="s" r="B19">
+        <v>51</v>
+      </c>
+      <c t="s" r="F19">
+        <v>52</v>
+      </c>
+      <c t="s" r="G19">
+        <v>53</v>
+      </c>
+      <c t="s" r="H19">
+        <v>54</v>
+      </c>
     </row>
     <row r="20">
       <c s="12" r="A20"/>
@@ -746,6 +835,12 @@
     </row>
     <row r="23">
       <c s="12" r="A23"/>
+    </row>
+    <row r="24">
+      <c s="12" r="A24"/>
+    </row>
+    <row r="25">
+      <c s="12" r="A25"/>
     </row>
   </sheetData>
 </worksheet>
@@ -756,17 +851,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" defaultColWidth="17.14" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1">
       <c t="s" r="A1">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c t="s" r="B1">
         <v>5</v>
       </c>
       <c t="s" r="C1">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c t="s" r="D1">
         <v>6</v>
@@ -774,156 +869,156 @@
     </row>
     <row r="2">
       <c t="s" r="A2">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c t="s" r="B2">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c t="s" r="C2">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c t="s" r="A3">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c t="s" r="B3">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c t="s" r="C3">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c t="s" r="A4">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c t="s" r="B4">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c t="s" r="C4">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
       <c t="s" r="A5">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c t="s" r="B5">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c t="s" r="C5">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c t="s" r="A6">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c t="s" r="B6">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c t="s" r="C6">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
       <c t="s" r="A7">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c t="s" r="B7">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c t="s" r="C7">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
       <c t="s" r="A8">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c t="s" r="B8">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c t="s" r="C8">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
       <c t="s" r="A9">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c t="s" r="B9">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c t="s" r="C9">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c t="s" r="A10">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c t="s" r="B10">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c t="s" r="C10">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c t="s" r="A12">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c t="s" r="B12">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c t="s" r="D12">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c t="s" r="A13">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c t="s" r="B13">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c t="s" r="D13">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c t="s" r="A15">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c t="s" r="B15">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c t="s" r="D15">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c t="s" r="A16">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c t="s" r="B16">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c t="s" r="D16">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c t="s" r="A17">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c t="s" r="B17">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c t="s" r="D17">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -935,10 +1030,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" defaultColWidth="17.14" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
   <cols>
-    <col max="2" min="2" customWidth="1" width="71.29"/>
-    <col max="3" min="3" customWidth="1" width="35.14"/>
+    <col min="2" customWidth="1" max="2" width="71.29"/>
+    <col min="3" customWidth="1" max="3" width="43.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -946,43 +1041,65 @@
         <v>5</v>
       </c>
       <c t="s" r="B1">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c t="s" r="C1">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c t="s" r="A2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c t="s" r="B2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c t="s" r="C2">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
       <c t="s" r="A3">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c t="s" r="B3">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c t="s" r="C3">
-        <v>81</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c t="s" r="A4">
+        <v>95</v>
+      </c>
+      <c t="s" r="B4">
+        <v>96</v>
+      </c>
+      <c t="s" r="C4">
+        <v>97</v>
       </c>
     </row>
     <row r="5">
       <c t="s" r="A5">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c t="s" r="B5">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c t="s" r="C5">
-        <v>86</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c t="s" r="A6">
+        <v>100</v>
+      </c>
+      <c t="s" r="B6">
+        <v>101</v>
+      </c>
+      <c t="s" r="C6">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -994,29 +1111,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" defaultColWidth="17.14" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1">
       <c t="s" s="2" r="A1">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c t="s" s="2" r="B1">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c s="2" r="C1"/>
     </row>
     <row r="2">
       <c t="s" s="2" r="A2">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c t="s" s="2" r="B2">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c s="2" r="C2"/>
     </row>
     <row r="3">
       <c t="s" s="2" r="A3">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1024,10 +1141,10 @@
     </row>
     <row r="4">
       <c t="s" r="A4">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c t="s" r="B4">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6">

--- a/form-files/selects/selects.xlsx
+++ b/form-files/selects/selects.xlsx
@@ -306,7 +306,7 @@
     <t>"https://query.yahooapis.com/v1/public/yql?format=json&amp;q=" +  encodeURIComponent("select * from geo.states where place='" + data('state') + "'")</t>
   </si>
   <si>
-    <t>countries_csv</t>
+    <t>regions_csv</t>
   </si>
   <si>
     <t>"regions.csv"</t>
@@ -314,10 +314,10 @@
   <si>
     <t>_.chain(context).pluck('region').uniq().map(function(region){
 return {name:region, label:region};
-})</t>
-  </si>
-  <si>
-    <t>regions_csv</t>
+}).value()</t>
+  </si>
+  <si>
+    <t>countries_csv</t>
   </si>
   <si>
     <t>_.map(context, function(place){
@@ -571,6 +571,7 @@
     <col min="5" customWidth="1" max="5" width="38.71"/>
     <col min="6" customWidth="1" max="6" width="32.71"/>
     <col min="7" customWidth="1" max="7" width="46.0"/>
+    <col min="9" customWidth="1" max="9" width="25.29"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/form-files/selects/selects.xlsx
+++ b/form-files/selects/selects.xlsx
@@ -166,9 +166,7 @@
     <t>Choose a country:</t>
   </si>
   <si>
-    <t>_.where(context, {
-  region: data('region')
-})</t>
+    <t>context.region === data('region')</t>
   </si>
   <si>
     <t>select_one content_provider_test</t>
@@ -342,16 +340,16 @@
     <t>value</t>
   </si>
   <si>
-    <t>formId</t>
+    <t>form_id</t>
   </si>
   <si>
     <t>selects</t>
   </si>
   <si>
-    <t>formVersion</t>
-  </si>
-  <si>
-    <t>formTitle</t>
+    <t>form_version</t>
+  </si>
+  <si>
+    <t>form_title</t>
   </si>
   <si>
     <t>Select Examples</t>

--- a/form-files/selects/selects.xlsx
+++ b/form-files/selects/selects.xlsx
@@ -3,10 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet name="survey" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="choices" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="queries" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="settings" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet sheetId="1" name="survey" state="visible" r:id="rId3"/>
+    <sheet sheetId="2" name="choices" state="visible" r:id="rId4"/>
+    <sheet sheetId="3" name="queries" state="visible" r:id="rId5"/>
+    <sheet sheetId="4" name="settings" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94" count="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="110">
   <si>
     <t>comments</t>
   </si>
@@ -37,6 +37,12 @@
     <t>label</t>
   </si>
   <si>
+    <t>hint</t>
+  </si>
+  <si>
+    <t>choice_filter</t>
+  </si>
+  <si>
     <t>Cascading select using remote data</t>
   </si>
   <si>
@@ -139,6 +145,32 @@
     <t>Horizontal select example.</t>
   </si>
   <si>
+    <t>select_one regions_csv</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>Choose a region:</t>
+  </si>
+  <si>
+    <t>select_one countries_csv</t>
+  </si>
+  <si>
+    <t>dropdown</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>Choose a country:</t>
+  </si>
+  <si>
+    <t>_.where(context, {
+  region: data('region')
+})</t>
+  </si>
+  <si>
     <t>select_one content_provider_test</t>
   </si>
   <si>
@@ -146,6 +178,9 @@
   </si>
   <si>
     <t>This demos a content provider query.</t>
+  </si>
+  <si>
+    <t>You will need to install a content provider app for the query to work. There is an example app available here: https://github.com/nathanathan/FileContentProviderExample</t>
   </si>
   <si>
     <t>list_name</t>
@@ -271,13 +306,34 @@
     <t>"https://query.yahooapis.com/v1/public/yql?format=json&amp;q=" +  encodeURIComponent("select * from geo.states where place='" + data('state') + "'")</t>
   </si>
   <si>
+    <t>regions_csv</t>
+  </si>
+  <si>
+    <t>"regions.csv"</t>
+  </si>
+  <si>
+    <t>_.chain(context).pluck('region').uniq().map(function(region){
+return {name:region, label:region};
+}).value()</t>
+  </si>
+  <si>
+    <t>countries_csv</t>
+  </si>
+  <si>
+    <t>_.map(context, function(place){
+place.name = place.country;
+place.label = place.country;
+return place;
+})</t>
+  </si>
+  <si>
     <t>content_provider_test</t>
   </si>
   <si>
-    <t>"content://com.opendatakit.tables.ContentProvider/database_id/table_id/row_id"</t>
-  </si>
-  <si>
-    <t>[{ name: "test", label : JSON.stringify(context) }]</t>
+    <t>"content://org.opendatakit.FileContentProviderExample/"</t>
+  </si>
+  <si>
+    <t>[context]</t>
   </si>
   <si>
     <t>setting</t>
@@ -450,50 +506,50 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" xfId="0" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="2" fillId="2" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="3" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="4" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="4" fillId="5" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="6" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="7" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="8" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="5" fillId="9" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="10" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="6" fillId="11" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="10" borderId="0" fontId="0" applyNumberFormat="1">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="1">
+      <alignment vertical="center" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="2" applyFill="1">
+      <alignment vertical="center" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="3">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="4" applyFill="1">
+      <alignment vertical="center" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="6" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="7" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="8" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="9" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="5" applyFill="1">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="10" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="11" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="6" applyFill="1">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,14 +563,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" defaultColWidth="17.14" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
   <cols>
-    <col max="1" min="1" customWidth="1" width="34.29"/>
-    <col max="2" min="2" customWidth="1" width="35.0"/>
-    <col max="4" min="4" customWidth="1" width="20.71"/>
-    <col max="5" min="5" customWidth="1" width="38.71"/>
-    <col max="6" min="6" customWidth="1" width="32.71"/>
-    <col max="7" min="7" customWidth="1" width="46.0"/>
+    <col min="1" customWidth="1" max="1" width="34.29"/>
+    <col min="2" customWidth="1" max="2" width="35.0"/>
+    <col min="4" customWidth="1" max="4" width="20.71"/>
+    <col min="5" customWidth="1" max="5" width="38.71"/>
+    <col min="6" customWidth="1" max="6" width="32.71"/>
+    <col min="7" customWidth="1" max="7" width="46.0"/>
+    <col min="9" customWidth="1" max="9" width="25.29"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,201 +596,234 @@
       <c t="s" r="G1">
         <v>6</v>
       </c>
+      <c t="s" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" r="I1">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c t="s" s="12" r="A2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c t="s" r="B2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c t="s" r="F2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c t="s" r="G2">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c s="12" r="A3"/>
       <c t="s" r="B3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c t="s" r="F3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c t="s" r="G3">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c t="s" s="12" r="A4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c t="s" r="B4">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c s="12" r="A5"/>
       <c t="s" r="B5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c t="s" r="C5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c t="s" r="F5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c t="s" r="G5">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c s="12" r="A6"/>
       <c t="s" r="B6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c t="s" r="E6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c t="s" r="G6">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c s="12" r="A7"/>
       <c t="s" r="B7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c t="s" r="E7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c t="s" r="G7">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c s="12" r="A8"/>
       <c t="s" r="B8">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c s="12" r="A9"/>
       <c t="s" r="B9">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c s="12" r="A10"/>
       <c t="s" r="B10">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c t="s" r="C10">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c t="s" r="F10">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c t="s" r="G10">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c s="12" r="A11"/>
       <c t="s" r="B11">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c t="s" r="C11">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c t="s" r="F11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c t="s" r="G11">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c s="12" r="A12"/>
       <c t="s" r="B12">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c t="s" r="C12">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c t="s" r="F12">
+        <v>33</v>
+      </c>
+      <c t="s" r="G12">
         <v>31</v>
-      </c>
-      <c t="s" r="G12">
-        <v>29</v>
       </c>
     </row>
     <row r="13">
       <c s="12" r="A13"/>
       <c t="s" r="B13">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c s="12" r="A14"/>
       <c t="s" r="B14">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c t="s" r="F14">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c t="s" r="G14">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
       <c t="s" s="12" r="A15">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c t="s" r="B15">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c t="s" r="E15">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c t="s" r="G15">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
       <c s="12" r="A16"/>
       <c t="s" r="B16">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c t="s" r="D16">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c t="s" r="F16">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c t="s" r="G16">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
       <c s="12" r="A17"/>
       <c t="s" r="B17">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c t="s" r="F17">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c t="s" r="G17">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18">
       <c s="12" r="A18"/>
+      <c t="s" r="B18">
+        <v>46</v>
+      </c>
+      <c t="s" r="C18">
+        <v>47</v>
+      </c>
+      <c t="s" r="F18">
+        <v>48</v>
+      </c>
+      <c t="s" r="G18">
+        <v>49</v>
+      </c>
+      <c t="s" r="I18">
+        <v>50</v>
+      </c>
     </row>
     <row r="19">
       <c s="12" r="A19"/>
+      <c t="s" r="B19">
+        <v>51</v>
+      </c>
+      <c t="s" r="F19">
+        <v>52</v>
+      </c>
+      <c t="s" r="G19">
+        <v>53</v>
+      </c>
+      <c t="s" r="H19">
+        <v>54</v>
+      </c>
     </row>
     <row r="20">
       <c s="12" r="A20"/>
@@ -746,6 +836,12 @@
     </row>
     <row r="23">
       <c s="12" r="A23"/>
+    </row>
+    <row r="24">
+      <c s="12" r="A24"/>
+    </row>
+    <row r="25">
+      <c s="12" r="A25"/>
     </row>
   </sheetData>
 </worksheet>
@@ -756,17 +852,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" defaultColWidth="17.14" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1">
       <c t="s" r="A1">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c t="s" r="B1">
         <v>5</v>
       </c>
       <c t="s" r="C1">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c t="s" r="D1">
         <v>6</v>
@@ -774,156 +870,156 @@
     </row>
     <row r="2">
       <c t="s" r="A2">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c t="s" r="B2">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c t="s" r="C2">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c t="s" r="A3">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c t="s" r="B3">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c t="s" r="C3">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c t="s" r="A4">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c t="s" r="B4">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c t="s" r="C4">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
       <c t="s" r="A5">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c t="s" r="B5">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c t="s" r="C5">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c t="s" r="A6">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c t="s" r="B6">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c t="s" r="C6">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
       <c t="s" r="A7">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c t="s" r="B7">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c t="s" r="C7">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
       <c t="s" r="A8">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c t="s" r="B8">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c t="s" r="C8">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
       <c t="s" r="A9">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c t="s" r="B9">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c t="s" r="C9">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c t="s" r="A10">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c t="s" r="B10">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c t="s" r="C10">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c t="s" r="A12">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c t="s" r="B12">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c t="s" r="D12">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c t="s" r="A13">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c t="s" r="B13">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c t="s" r="D13">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c t="s" r="A15">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c t="s" r="B15">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c t="s" r="D15">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c t="s" r="A16">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c t="s" r="B16">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c t="s" r="D16">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c t="s" r="A17">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c t="s" r="B17">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c t="s" r="D17">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -935,10 +1031,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" defaultColWidth="17.14" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
   <cols>
-    <col max="2" min="2" customWidth="1" width="71.29"/>
-    <col max="3" min="3" customWidth="1" width="35.14"/>
+    <col min="2" customWidth="1" max="2" width="71.29"/>
+    <col min="3" customWidth="1" max="3" width="43.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -946,43 +1042,65 @@
         <v>5</v>
       </c>
       <c t="s" r="B1">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c t="s" r="C1">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c t="s" r="A2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c t="s" r="B2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c t="s" r="C2">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
       <c t="s" r="A3">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c t="s" r="B3">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c t="s" r="C3">
-        <v>81</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c t="s" r="A4">
+        <v>95</v>
+      </c>
+      <c t="s" r="B4">
+        <v>96</v>
+      </c>
+      <c t="s" r="C4">
+        <v>97</v>
       </c>
     </row>
     <row r="5">
       <c t="s" r="A5">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c t="s" r="B5">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c t="s" r="C5">
-        <v>86</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c t="s" r="A6">
+        <v>100</v>
+      </c>
+      <c t="s" r="B6">
+        <v>101</v>
+      </c>
+      <c t="s" r="C6">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -994,29 +1112,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" defaultColWidth="17.14" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1">
       <c t="s" s="2" r="A1">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c t="s" s="2" r="B1">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c s="2" r="C1"/>
     </row>
     <row r="2">
       <c t="s" s="2" r="A2">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c t="s" s="2" r="B2">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c s="2" r="C2"/>
     </row>
     <row r="3">
       <c t="s" s="2" r="A3">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1024,10 +1142,10 @@
     </row>
     <row r="4">
       <c t="s" r="A4">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c t="s" r="B4">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6">

--- a/form-files/selects/selects.xlsx
+++ b/form-files/selects/selects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="108">
   <si>
     <t>comments</t>
   </si>
@@ -46,6 +46,15 @@
     <t>Cascading select using remote data</t>
   </si>
   <si>
+    <t>select_one countries</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>Choose a country:</t>
+  </si>
+  <si>
     <t>select_one states</t>
   </si>
   <si>
@@ -55,15 +64,6 @@
     <t>Choose a state:</t>
   </si>
   <si>
-    <t>select_one cities</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>Choose a city:</t>
-  </si>
-  <si>
     <t>Image based select</t>
   </si>
   <si>
@@ -160,12 +160,6 @@
     <t>dropdown</t>
   </si>
   <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>Choose a country:</t>
-  </si>
-  <si>
     <t>context.region === data('region')</t>
   </si>
   <si>
@@ -286,7 +280,7 @@
     <t>callback</t>
   </si>
   <si>
-    <t>states</t>
+    <t>countries</t>
   </si>
   <si>
     <t>"https://query.yahooapis.com/v1/public/yql?format=json&amp;q=" +  encodeURIComponent("select * from geo.countries where place='North America'")</t>
@@ -298,10 +292,10 @@
 }) : []</t>
   </si>
   <si>
-    <t>cities</t>
-  </si>
-  <si>
-    <t>"https://query.yahooapis.com/v1/public/yql?format=json&amp;q=" +  encodeURIComponent("select * from geo.states where place='" + data('state') + "'")</t>
+    <t>states</t>
+  </si>
+  <si>
+    <t>"https://query.yahooapis.com/v1/public/yql?format=json&amp;q=" +  encodeURIComponent("select * from geo.states where place='" + data('country') + "'")</t>
   </si>
   <si>
     <t>regions_csv</t>
@@ -799,28 +793,28 @@
         <v>47</v>
       </c>
       <c t="s" r="F18">
+        <v>11</v>
+      </c>
+      <c t="s" r="G18">
+        <v>12</v>
+      </c>
+      <c t="s" r="I18">
         <v>48</v>
-      </c>
-      <c t="s" r="G18">
-        <v>49</v>
-      </c>
-      <c t="s" r="I18">
-        <v>50</v>
       </c>
     </row>
     <row r="19">
       <c s="12" r="A19"/>
       <c t="s" r="B19">
+        <v>49</v>
+      </c>
+      <c t="s" r="F19">
+        <v>50</v>
+      </c>
+      <c t="s" r="G19">
         <v>51</v>
       </c>
-      <c t="s" r="F19">
+      <c t="s" r="H19">
         <v>52</v>
-      </c>
-      <c t="s" r="G19">
-        <v>53</v>
-      </c>
-      <c t="s" r="H19">
-        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -854,13 +848,13 @@
   <sheetData>
     <row r="1">
       <c t="s" r="A1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c t="s" r="B1">
         <v>5</v>
       </c>
       <c t="s" r="C1">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="D1">
         <v>6</v>
@@ -868,156 +862,156 @@
     </row>
     <row r="2">
       <c t="s" r="A2">
+        <v>55</v>
+      </c>
+      <c t="s" r="B2">
+        <v>56</v>
+      </c>
+      <c t="s" r="C2">
         <v>57</v>
-      </c>
-      <c t="s" r="B2">
-        <v>58</v>
-      </c>
-      <c t="s" r="C2">
-        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c t="s" r="A3">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="B3">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="C3">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c t="s" r="A4">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="B4">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c t="s" r="C4">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
       <c t="s" r="A5">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="B5">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="C5">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
       <c t="s" r="A6">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="B6">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="C6">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c t="s" r="A7">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="B7">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="C7">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
       <c t="s" r="A8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="B8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="C8">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
       <c t="s" r="A9">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="B9">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="C9">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
       <c t="s" r="A10">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="B10">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="C10">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c t="s" r="A12">
+        <v>74</v>
+      </c>
+      <c t="s" r="B12">
+        <v>75</v>
+      </c>
+      <c t="s" r="D12">
         <v>76</v>
-      </c>
-      <c t="s" r="B12">
-        <v>77</v>
-      </c>
-      <c t="s" r="D12">
-        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c t="s" r="A13">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="B13">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="D13">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
       <c t="s" r="A15">
+        <v>79</v>
+      </c>
+      <c t="s" r="B15">
+        <v>80</v>
+      </c>
+      <c t="s" r="D15">
         <v>81</v>
-      </c>
-      <c t="s" r="B15">
-        <v>82</v>
-      </c>
-      <c t="s" r="D15">
-        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c t="s" r="A16">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="B16">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="D16">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
       <c t="s" r="A17">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="B17">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="D17">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1040,65 +1034,65 @@
         <v>5</v>
       </c>
       <c t="s" r="B1">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="C1">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2">
       <c t="s" r="A2">
+        <v>88</v>
+      </c>
+      <c t="s" r="B2">
+        <v>89</v>
+      </c>
+      <c t="s" r="C2">
         <v>90</v>
-      </c>
-      <c t="s" r="B2">
-        <v>91</v>
-      </c>
-      <c t="s" r="C2">
-        <v>92</v>
       </c>
     </row>
     <row r="3">
       <c t="s" r="A3">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="B3">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="C3">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c t="s" r="A4">
+        <v>93</v>
+      </c>
+      <c t="s" r="B4">
+        <v>94</v>
+      </c>
+      <c t="s" r="C4">
         <v>95</v>
-      </c>
-      <c t="s" r="B4">
-        <v>96</v>
-      </c>
-      <c t="s" r="C4">
-        <v>97</v>
       </c>
     </row>
     <row r="5">
       <c t="s" r="A5">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="B5">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="C5">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6">
       <c t="s" r="A6">
+        <v>98</v>
+      </c>
+      <c t="s" r="B6">
+        <v>99</v>
+      </c>
+      <c t="s" r="C6">
         <v>100</v>
-      </c>
-      <c t="s" r="B6">
-        <v>101</v>
-      </c>
-      <c t="s" r="C6">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1114,25 +1108,25 @@
   <sheetData>
     <row r="1">
       <c t="s" s="2" r="A1">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" s="2" r="B1">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c s="2" r="C1"/>
     </row>
     <row r="2">
       <c t="s" s="2" r="A2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" s="2" r="B2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c s="2" r="C2"/>
     </row>
     <row r="3">
       <c t="s" s="2" r="A3">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1140,10 +1134,10 @@
     </row>
     <row r="4">
       <c t="s" r="A4">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="B4">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6">

--- a/form-files/selects/selects.xlsx
+++ b/form-files/selects/selects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="113">
   <si>
     <t>comments</t>
   </si>
@@ -100,22 +100,37 @@
     <t>end screen</t>
   </si>
   <si>
+    <t>Which devices do you use?</t>
+  </si>
+  <si>
     <t>select_one yes_no</t>
   </si>
   <si>
     <t>inline</t>
   </si>
   <si>
-    <t>i1</t>
-  </si>
-  <si>
-    <t>Choose one:</t>
-  </si>
-  <si>
-    <t>i2</t>
-  </si>
-  <si>
-    <t>i3</t>
+    <t>desktop</t>
+  </si>
+  <si>
+    <t>Desktop computer</t>
+  </si>
+  <si>
+    <t>laptop</t>
+  </si>
+  <si>
+    <t>Laptop computer</t>
+  </si>
+  <si>
+    <t>smartphone</t>
+  </si>
+  <si>
+    <t>Smartphone</t>
+  </si>
+  <si>
+    <t>tablet</t>
+  </si>
+  <si>
+    <t>Tablet</t>
   </si>
   <si>
     <t>select_one_with_other colors</t>
@@ -325,7 +340,7 @@
     <t>"content://org.opendatakit.FileContentProviderExample/"</t>
   </si>
   <si>
-    <t>[context]</t>
+    <t>context</t>
   </si>
   <si>
     <t>setting</t>
@@ -560,7 +575,7 @@
     <col min="1" customWidth="1" max="1" width="34.29"/>
     <col min="2" customWidth="1" max="2" width="35.0"/>
     <col min="4" customWidth="1" max="4" width="20.71"/>
-    <col min="5" customWidth="1" max="5" width="38.71"/>
+    <col min="5" customWidth="1" max="5" width="33.29"/>
     <col min="6" customWidth="1" max="6" width="32.71"/>
     <col min="7" customWidth="1" max="7" width="46.0"/>
     <col min="9" customWidth="1" max="9" width="25.29"/>
@@ -683,145 +698,166 @@
     <row r="10">
       <c s="12" r="A10"/>
       <c t="s" r="B10">
+        <v>22</v>
+      </c>
+      <c t="s" r="G10">
         <v>28</v>
-      </c>
-      <c t="s" r="C10">
-        <v>29</v>
-      </c>
-      <c t="s" r="F10">
-        <v>30</v>
-      </c>
-      <c t="s" r="G10">
-        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c s="12" r="A11"/>
       <c t="s" r="B11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="C11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="F11">
+        <v>31</v>
+      </c>
+      <c t="s" r="G11">
         <v>32</v>
-      </c>
-      <c t="s" r="G11">
-        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c s="12" r="A12"/>
       <c t="s" r="B12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="C12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="F12">
         <v>33</v>
       </c>
       <c t="s" r="G12">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c s="12" r="A13"/>
       <c t="s" r="B13">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c t="s" r="C13">
+        <v>30</v>
+      </c>
+      <c t="s" r="F13">
+        <v>35</v>
+      </c>
+      <c t="s" r="G13">
+        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c s="12" r="A14"/>
       <c t="s" r="B14">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c t="s" r="C14">
+        <v>30</v>
       </c>
       <c t="s" r="F14">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c t="s" r="G14">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
-      <c t="s" s="12" r="A15">
-        <v>37</v>
-      </c>
+      <c s="12" r="A15"/>
       <c t="s" r="B15">
-        <v>22</v>
-      </c>
-      <c t="s" r="E15">
-        <v>38</v>
-      </c>
-      <c t="s" r="G15">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c s="12" r="A16"/>
       <c t="s" r="B16">
-        <v>28</v>
-      </c>
-      <c t="s" r="D16">
+        <v>39</v>
+      </c>
+      <c t="s" r="F16">
         <v>40</v>
       </c>
-      <c t="s" r="F16">
+      <c t="s" r="G16">
         <v>41</v>
       </c>
-      <c t="s" r="G16">
+    </row>
+    <row r="17">
+      <c t="s" s="12" r="A17">
         <v>42</v>
       </c>
-    </row>
-    <row r="17">
-      <c s="12" r="A17"/>
       <c t="s" r="B17">
+        <v>22</v>
+      </c>
+      <c t="s" r="E17">
         <v>43</v>
       </c>
-      <c t="s" r="F17">
+      <c t="s" r="G17">
         <v>44</v>
-      </c>
-      <c t="s" r="G17">
-        <v>45</v>
       </c>
     </row>
     <row r="18">
       <c s="12" r="A18"/>
       <c t="s" r="B18">
+        <v>29</v>
+      </c>
+      <c t="s" r="D18">
+        <v>45</v>
+      </c>
+      <c t="s" r="F18">
         <v>46</v>
       </c>
-      <c t="s" r="C18">
+      <c t="s" r="G18">
         <v>47</v>
-      </c>
-      <c t="s" r="F18">
-        <v>11</v>
-      </c>
-      <c t="s" r="G18">
-        <v>12</v>
-      </c>
-      <c t="s" r="I18">
-        <v>48</v>
       </c>
     </row>
     <row r="19">
       <c s="12" r="A19"/>
       <c t="s" r="B19">
+        <v>48</v>
+      </c>
+      <c t="s" r="F19">
         <v>49</v>
       </c>
-      <c t="s" r="F19">
+      <c t="s" r="G19">
         <v>50</v>
-      </c>
-      <c t="s" r="G19">
-        <v>51</v>
-      </c>
-      <c t="s" r="H19">
-        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c s="12" r="A20"/>
+      <c t="s" r="B20">
+        <v>51</v>
+      </c>
+      <c t="s" r="C20">
+        <v>52</v>
+      </c>
+      <c t="s" r="F20">
+        <v>11</v>
+      </c>
+      <c t="s" r="G20">
+        <v>12</v>
+      </c>
+      <c t="s" r="I20">
+        <v>53</v>
+      </c>
     </row>
     <row r="21">
       <c s="12" r="A21"/>
+      <c t="s" r="B21">
+        <v>54</v>
+      </c>
+      <c t="b" r="E21">
+        <v>0</v>
+      </c>
+      <c t="s" r="F21">
+        <v>55</v>
+      </c>
+      <c t="s" r="G21">
+        <v>56</v>
+      </c>
+      <c t="s" r="H21">
+        <v>57</v>
+      </c>
     </row>
     <row r="22">
       <c s="12" r="A22"/>
@@ -834,6 +870,12 @@
     </row>
     <row r="25">
       <c s="12" r="A25"/>
+    </row>
+    <row r="26">
+      <c s="12" r="A26"/>
+    </row>
+    <row r="27">
+      <c s="12" r="A27"/>
     </row>
   </sheetData>
 </worksheet>
@@ -848,13 +890,13 @@
   <sheetData>
     <row r="1">
       <c t="s" r="A1">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c t="s" r="B1">
         <v>5</v>
       </c>
       <c t="s" r="C1">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c t="s" r="D1">
         <v>6</v>
@@ -862,156 +904,156 @@
     </row>
     <row r="2">
       <c t="s" r="A2">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c t="s" r="B2">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c t="s" r="C2">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
       <c t="s" r="A3">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c t="s" r="B3">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c t="s" r="C3">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c t="s" r="A4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c t="s" r="B4">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c t="s" r="C4">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c t="s" r="A5">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c t="s" r="B5">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c t="s" r="C5">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
       <c t="s" r="A6">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c t="s" r="B6">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c t="s" r="C6">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c t="s" r="A7">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c t="s" r="B7">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c t="s" r="C7">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c t="s" r="A8">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c t="s" r="B8">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c t="s" r="C8">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c t="s" r="A9">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c t="s" r="B9">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c t="s" r="C9">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c t="s" r="A10">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c t="s" r="B10">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c t="s" r="C10">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
       <c t="s" r="A12">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c t="s" r="B12">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c t="s" r="D12">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c t="s" r="A13">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c t="s" r="B13">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c t="s" r="D13">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
       <c t="s" r="A15">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c t="s" r="B15">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c t="s" r="D15">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
       <c t="s" r="A16">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c t="s" r="B16">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c t="s" r="D16">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
       <c t="s" r="A17">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c t="s" r="B17">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c t="s" r="D17">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1034,65 +1076,65 @@
         <v>5</v>
       </c>
       <c t="s" r="B1">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c t="s" r="C1">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2">
       <c t="s" r="A2">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c t="s" r="B2">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c t="s" r="C2">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
       <c t="s" r="A3">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c t="s" r="B3">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c t="s" r="C3">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4">
       <c t="s" r="A4">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c t="s" r="B4">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c t="s" r="C4">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
       <c t="s" r="A5">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c t="s" r="B5">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c t="s" r="C5">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6">
       <c t="s" r="A6">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c t="s" r="B6">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c t="s" r="C6">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1108,25 +1150,25 @@
   <sheetData>
     <row r="1">
       <c t="s" s="2" r="A1">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c t="s" s="2" r="B1">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c s="2" r="C1"/>
     </row>
     <row r="2">
       <c t="s" s="2" r="A2">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c t="s" s="2" r="B2">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c s="2" r="C2"/>
     </row>
     <row r="3">
       <c t="s" s="2" r="A3">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1134,10 +1176,10 @@
     </row>
     <row r="4">
       <c t="s" r="A4">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c t="s" r="B4">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6">

--- a/form-files/selects/selects.xlsx
+++ b/form-files/selects/selects.xlsx
@@ -1,15 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="516" yWindow="480" windowWidth="14076" windowHeight="7884" activeTab="3"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="survey" state="visible" r:id="rId3"/>
-    <sheet sheetId="2" name="choices" state="visible" r:id="rId4"/>
-    <sheet sheetId="3" name="queries" state="visible" r:id="rId5"/>
-    <sheet sheetId="4" name="settings" state="visible" r:id="rId6"/>
+    <sheet name="survey" sheetId="1" r:id="rId1"/>
+    <sheet name="choices" sheetId="2" r:id="rId2"/>
+    <sheet name="queries" sheetId="3" r:id="rId3"/>
+    <sheet name="settings" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -367,138 +370,29 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="18.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE5CD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCFE2F3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCFE2F3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,739 +407,1008 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="10" borderId="0" fontId="0" applyNumberFormat="1">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="general" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="2" applyFill="1">
-      <alignment vertical="center" horizontal="general" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="3">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="4" applyFill="1">
-      <alignment vertical="center" horizontal="general" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" fillId="6" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" fillId="7" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" fillId="8" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" fillId="9" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="5" applyFill="1">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" fillId="10" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" fillId="11" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="6" applyFill="1">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="34.29"/>
-    <col min="2" customWidth="1" max="2" width="35.0"/>
-    <col min="4" customWidth="1" max="4" width="20.71"/>
-    <col min="5" customWidth="1" max="5" width="33.29"/>
-    <col min="6" customWidth="1" max="6" width="32.71"/>
-    <col min="7" customWidth="1" max="7" width="46.0"/>
-    <col min="9" customWidth="1" max="9" width="25.29"/>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" customWidth="1"/>
+    <col min="7" max="7" width="46" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c t="s" s="12" r="A1">
+    <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c t="s" r="H1">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c t="s" r="I1">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c t="s" s="12" r="A2">
+    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c t="s" r="B2">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c t="s" r="F2">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c t="s" r="G2">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3">
-      <c s="12" r="A3"/>
-      <c t="s" r="B3">
+    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="F3">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="G3">
+      <c r="G3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4">
-      <c t="s" s="12" r="A4">
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c t="s" r="B4">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5">
-      <c s="12" r="A5"/>
-      <c t="s" r="B5">
+    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c t="s" r="C5">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c t="s" r="F5">
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c t="s" r="G5">
+      <c r="G5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6">
-      <c s="12" r="A6"/>
-      <c t="s" r="B6">
+    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c t="s" r="E6">
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c t="s" r="G6">
+      <c r="G6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7">
-      <c s="12" r="A7"/>
-      <c t="s" r="B7">
+    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c t="s" r="E7">
+      <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c t="s" r="G7">
+      <c r="G7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8">
-      <c s="12" r="A8"/>
-      <c t="s" r="B8">
+    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9">
-      <c s="12" r="A9"/>
-      <c t="s" r="B9">
+    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10">
-      <c s="12" r="A10"/>
-      <c t="s" r="B10">
+    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c t="s" r="G10">
+      <c r="G10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11">
-      <c s="12" r="A11"/>
-      <c t="s" r="B11">
+    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="C11">
+      <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="F11">
+      <c r="F11" t="s">
         <v>31</v>
       </c>
-      <c t="s" r="G11">
+      <c r="G11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12">
-      <c s="12" r="A12"/>
-      <c t="s" r="B12">
+    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="C12">
+      <c r="C12" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="F12">
+      <c r="F12" t="s">
         <v>33</v>
       </c>
-      <c t="s" r="G12">
+      <c r="G12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13">
-      <c s="12" r="A13"/>
-      <c t="s" r="B13">
+    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="C13">
+      <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="F13">
+      <c r="F13" t="s">
         <v>35</v>
       </c>
-      <c t="s" r="G13">
+      <c r="G13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14">
-      <c s="12" r="A14"/>
-      <c t="s" r="B14">
+    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="C14">
+      <c r="C14" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="F14">
+      <c r="F14" t="s">
         <v>37</v>
       </c>
-      <c t="s" r="G14">
+      <c r="G14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15">
-      <c s="12" r="A15"/>
-      <c t="s" r="B15">
+    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16">
-      <c s="12" r="A16"/>
-      <c t="s" r="B16">
+    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c t="s" r="F16">
+      <c r="F16" t="s">
         <v>40</v>
       </c>
-      <c t="s" r="G16">
+      <c r="G16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17">
-      <c t="s" s="12" r="A17">
+    <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>42</v>
       </c>
-      <c t="s" r="B17">
+      <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c t="s" r="E17">
+      <c r="E17" t="s">
         <v>43</v>
       </c>
-      <c t="s" r="G17">
+      <c r="G17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18">
-      <c s="12" r="A18"/>
-      <c t="s" r="B18">
+    <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="D18">
+      <c r="D18" t="s">
         <v>45</v>
       </c>
-      <c t="s" r="F18">
+      <c r="F18" t="s">
         <v>46</v>
       </c>
-      <c t="s" r="G18">
+      <c r="G18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19">
-      <c s="12" r="A19"/>
-      <c t="s" r="B19">
+    <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" t="s">
         <v>48</v>
       </c>
-      <c t="s" r="F19">
+      <c r="F19" t="s">
         <v>49</v>
       </c>
-      <c t="s" r="G19">
+      <c r="G19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20">
-      <c s="12" r="A20"/>
-      <c t="s" r="B20">
+    <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" t="s">
         <v>51</v>
       </c>
-      <c t="s" r="C20">
+      <c r="C20" t="s">
         <v>52</v>
       </c>
-      <c t="s" r="F20">
+      <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c t="s" r="G20">
+      <c r="G20" t="s">
         <v>12</v>
       </c>
-      <c t="s" r="I20">
+      <c r="I20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21">
-      <c s="12" r="A21"/>
-      <c t="s" r="B21">
+    <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" t="s">
         <v>54</v>
       </c>
-      <c t="b" r="E21">
+      <c r="E21" t="b">
         <v>0</v>
       </c>
-      <c t="s" r="F21">
+      <c r="F21" t="s">
         <v>55</v>
       </c>
-      <c t="s" r="G21">
+      <c r="G21" t="s">
         <v>56</v>
       </c>
-      <c t="s" r="H21">
+      <c r="H21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22">
-      <c s="12" r="A22"/>
-    </row>
-    <row r="23">
-      <c s="12" r="A23"/>
-    </row>
-    <row r="24">
-      <c s="12" r="A24"/>
-    </row>
-    <row r="25">
-      <c s="12" r="A25"/>
-    </row>
-    <row r="26">
-      <c s="12" r="A26"/>
-    </row>
-    <row r="27">
-      <c s="12" r="A27"/>
+    <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c t="s" r="A1">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>58</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>59</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c t="s" r="A2">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>60</v>
       </c>
-      <c t="s" r="B2">
+      <c r="B2" t="s">
         <v>61</v>
       </c>
-      <c t="s" r="C2">
+      <c r="C2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3">
-      <c t="s" r="A3">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>60</v>
       </c>
-      <c t="s" r="B3">
+      <c r="B3" t="s">
         <v>63</v>
       </c>
-      <c t="s" r="C3">
+      <c r="C3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4">
-      <c t="s" r="A4">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>60</v>
       </c>
-      <c t="s" r="B4">
+      <c r="B4" t="s">
         <v>65</v>
       </c>
-      <c t="s" r="C4">
+      <c r="C4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5">
-      <c t="s" r="A5">
+    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>60</v>
       </c>
-      <c t="s" r="B5">
+      <c r="B5" t="s">
         <v>67</v>
       </c>
-      <c t="s" r="C5">
+      <c r="C5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6">
-      <c t="s" r="A6">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>60</v>
       </c>
-      <c t="s" r="B6">
+      <c r="B6" t="s">
         <v>69</v>
       </c>
-      <c t="s" r="C6">
+      <c r="C6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7">
-      <c t="s" r="A7">
+    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>60</v>
       </c>
-      <c t="s" r="B7">
+      <c r="B7" t="s">
         <v>71</v>
       </c>
-      <c t="s" r="C7">
+      <c r="C7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8">
-      <c t="s" r="A8">
+    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>60</v>
       </c>
-      <c t="s" r="B8">
+      <c r="B8" t="s">
         <v>73</v>
       </c>
-      <c t="s" r="C8">
+      <c r="C8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9">
-      <c t="s" r="A9">
+    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>60</v>
       </c>
-      <c t="s" r="B9">
+      <c r="B9" t="s">
         <v>75</v>
       </c>
-      <c t="s" r="C9">
+      <c r="C9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10">
-      <c t="s" r="A10">
+    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>60</v>
       </c>
-      <c t="s" r="B10">
+      <c r="B10" t="s">
         <v>77</v>
       </c>
-      <c t="s" r="C10">
+      <c r="C10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12">
-      <c t="s" r="A12">
+    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>79</v>
       </c>
-      <c t="s" r="B12">
+      <c r="B12" t="s">
         <v>80</v>
       </c>
-      <c t="s" r="D12">
+      <c r="D12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13">
-      <c t="s" r="A13">
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>79</v>
       </c>
-      <c t="s" r="B13">
+      <c r="B13" t="s">
         <v>82</v>
       </c>
-      <c t="s" r="D13">
+      <c r="D13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15">
-      <c t="s" r="A15">
+    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>84</v>
       </c>
-      <c t="s" r="B15">
+      <c r="B15" t="s">
         <v>85</v>
       </c>
-      <c t="s" r="D15">
+      <c r="D15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16">
-      <c t="s" r="A16">
+    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>84</v>
       </c>
-      <c t="s" r="B16">
+      <c r="B16" t="s">
         <v>87</v>
       </c>
-      <c t="s" r="D16">
+      <c r="D16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17">
-      <c t="s" r="A17">
+    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>84</v>
       </c>
-      <c t="s" r="B17">
+      <c r="B17" t="s">
         <v>89</v>
       </c>
-      <c t="s" r="D17">
+      <c r="D17" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" customWidth="1" max="2" width="71.29"/>
-    <col min="3" customWidth="1" max="3" width="43.71"/>
+    <col min="2" max="2" width="71.33203125" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c t="s" r="A1">
+    <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>5</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>91</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2">
-      <c t="s" r="A2">
+    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>93</v>
       </c>
-      <c t="s" r="B2">
+      <c r="B2" t="s">
         <v>94</v>
       </c>
-      <c t="s" r="C2">
+      <c r="C2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3">
-      <c t="s" r="A3">
+    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>96</v>
       </c>
-      <c t="s" r="B3">
+      <c r="B3" t="s">
         <v>97</v>
       </c>
-      <c t="s" r="C3">
+      <c r="C3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4">
-      <c t="s" r="A4">
+    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>98</v>
       </c>
-      <c t="s" r="B4">
+      <c r="B4" t="s">
         <v>99</v>
       </c>
-      <c t="s" r="C4">
+      <c r="C4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5">
-      <c t="s" r="A5">
+    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>101</v>
       </c>
-      <c t="s" r="B5">
+      <c r="B5" t="s">
         <v>99</v>
       </c>
-      <c t="s" r="C5">
+      <c r="C5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6">
-      <c t="s" r="A6">
+    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>103</v>
       </c>
-      <c t="s" r="B6">
+      <c r="B6" t="s">
         <v>104</v>
       </c>
-      <c t="s" r="C6">
+      <c r="C6" t="s">
         <v>105</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c t="s" s="2" r="A1">
+    <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>106</v>
       </c>
-      <c t="s" s="2" r="B1">
+      <c r="B1" s="1" t="s">
         <v>107</v>
       </c>
-      <c s="2" r="C1"/>
-    </row>
-    <row r="2">
-      <c t="s" s="2" r="A2">
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>108</v>
       </c>
-      <c t="s" s="2" r="B2">
+      <c r="B2" s="1" t="s">
         <v>109</v>
       </c>
-      <c s="2" r="C2"/>
-    </row>
-    <row r="3">
-      <c t="s" s="2" r="A3">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c t="s" r="A4">
+        <v>20130408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>111</v>
       </c>
-      <c t="s" r="B4">
+      <c r="B4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6">
-      <c s="2" r="A6"/>
-      <c s="2" r="B6"/>
-      <c s="2" r="C6"/>
-    </row>
-    <row r="7">
-      <c s="2" r="A7"/>
-      <c s="2" r="B7"/>
-      <c s="2" r="C7"/>
-    </row>
-    <row r="8">
-      <c s="2" r="A8"/>
-    </row>
-    <row r="9">
-      <c s="2" r="A9"/>
-    </row>
-    <row r="12">
-      <c s="2" r="A12"/>
-      <c s="2" r="B12"/>
-      <c s="2" r="C12"/>
-    </row>
-    <row r="13">
-      <c s="2" r="A13"/>
-      <c s="2" r="B13"/>
-      <c s="2" r="C13"/>
-    </row>
-    <row r="14">
-      <c s="2" r="A14"/>
-    </row>
-    <row r="15">
-      <c s="2" r="A15"/>
-    </row>
-    <row r="18">
-      <c s="2" r="A18"/>
-      <c s="2" r="B18"/>
-      <c s="2" r="C18"/>
-    </row>
-    <row r="19">
-      <c s="2" r="A19"/>
-      <c s="2" r="B19"/>
-      <c s="2" r="C19"/>
-    </row>
-    <row r="20">
-      <c s="2" r="A20"/>
-    </row>
-    <row r="21">
-      <c s="2" r="A21"/>
-    </row>
-    <row r="24">
-      <c s="2" r="A24"/>
-      <c s="2" r="B24"/>
-      <c s="2" r="C24"/>
-    </row>
-    <row r="25">
-      <c s="2" r="A25"/>
-      <c s="2" r="B25"/>
-      <c s="2" r="C25"/>
-    </row>
-    <row r="26">
-      <c s="2" r="A26"/>
-    </row>
-    <row r="27">
-      <c s="2" r="A27"/>
+    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="12" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="24" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/form-files/selects/selects.xlsx
+++ b/form-files/selects/selects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="516" yWindow="480" windowWidth="14076" windowHeight="7884" activeTab="3"/>
+    <workbookView xWindow="336" yWindow="48" windowWidth="20808" windowHeight="9564"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="114">
   <si>
     <t>comments</t>
   </si>
@@ -37,30 +37,18 @@
     <t>name</t>
   </si>
   <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>hint</t>
-  </si>
-  <si>
     <t>choice_filter</t>
   </si>
   <si>
     <t>Cascading select using remote data</t>
   </si>
   <si>
-    <t>select_one countries</t>
-  </si>
-  <si>
     <t>country</t>
   </si>
   <si>
     <t>Choose a country:</t>
   </si>
   <si>
-    <t>select_one states</t>
-  </si>
-  <si>
     <t>state</t>
   </si>
   <si>
@@ -73,9 +61,6 @@
     <t>begin screen</t>
   </si>
   <si>
-    <t>select_one birds</t>
-  </si>
-  <si>
     <t>grid</t>
   </si>
   <si>
@@ -106,9 +91,6 @@
     <t>Which devices do you use?</t>
   </si>
   <si>
-    <t>select_one yes_no</t>
-  </si>
-  <si>
     <t>inline</t>
   </si>
   <si>
@@ -136,9 +118,6 @@
     <t>Tablet</t>
   </si>
   <si>
-    <t>select_one_with_other colors</t>
-  </si>
-  <si>
     <t>color</t>
   </si>
   <si>
@@ -163,27 +142,18 @@
     <t>Horizontal select example.</t>
   </si>
   <si>
-    <t>select_one regions_csv</t>
-  </si>
-  <si>
     <t>region</t>
   </si>
   <si>
     <t>Choose a region:</t>
   </si>
   <si>
-    <t>select_one countries_csv</t>
-  </si>
-  <si>
     <t>dropdown</t>
   </si>
   <si>
     <t>context.region === data('region')</t>
   </si>
   <si>
-    <t>select_one content_provider_test</t>
-  </si>
-  <si>
     <t>cp_test</t>
   </si>
   <si>
@@ -191,12 +161,6 @@
   </si>
   <si>
     <t>You will need to install a content provider app for the query to work. There is an example app available here: https://github.com/nathanathan/FileContentProviderExample</t>
-  </si>
-  <si>
-    <t>list_name</t>
-  </si>
-  <si>
-    <t>image</t>
   </si>
   <si>
     <t>birds</t>
@@ -346,9 +310,6 @@
     <t>context</t>
   </si>
   <si>
-    <t>setting</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
@@ -361,10 +322,52 @@
     <t>form_version</t>
   </si>
   <si>
-    <t>form_title</t>
-  </si>
-  <si>
     <t>Select Examples</t>
+  </si>
+  <si>
+    <t>setting_name</t>
+  </si>
+  <si>
+    <t>display.title</t>
+  </si>
+  <si>
+    <t>survey</t>
+  </si>
+  <si>
+    <t>query_name</t>
+  </si>
+  <si>
+    <t>choice_list_name</t>
+  </si>
+  <si>
+    <t>data_value</t>
+  </si>
+  <si>
+    <t>display.image</t>
+  </si>
+  <si>
+    <t>display.text</t>
+  </si>
+  <si>
+    <t>clause</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>end if</t>
+  </si>
+  <si>
+    <t>display.hint</t>
+  </si>
+  <si>
+    <t>values_list</t>
+  </si>
+  <si>
+    <t>select_one</t>
+  </si>
+  <si>
+    <t>select_one_with_other</t>
   </si>
 </sst>
 </file>
@@ -381,6 +384,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -409,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -417,6 +421,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -720,316 +733,407 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="34.33203125" customWidth="1"/>
-    <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="33.33203125" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
-    <col min="7" max="7" width="46" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="35" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" customWidth="1"/>
+    <col min="9" max="9" width="46" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="D2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2"/>
+      <c r="D3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="4" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="5" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2"/>
+      <c r="D5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="I5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="6" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2"/>
+      <c r="B6" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2"/>
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="I7" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="8" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2"/>
+      <c r="B8" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2"/>
+      <c r="B9" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="G5" t="s">
+    </row>
+    <row r="10" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2"/>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" t="s">
+    <row r="11" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2"/>
+      <c r="B11" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2"/>
+      <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="13" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2"/>
+      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2"/>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
         <v>23</v>
       </c>
-      <c r="G6" t="s">
+    </row>
+    <row r="15" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2"/>
+      <c r="D15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" t="s">
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2"/>
+      <c r="D16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2"/>
+      <c r="D17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2"/>
+      <c r="D18" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2"/>
+      <c r="B19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" t="s">
+    </row>
+    <row r="20" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2"/>
+      <c r="D20" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2"/>
+      <c r="B21" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="I22" t="s">
         <v>37</v>
       </c>
-      <c r="G14" t="s">
+    </row>
+    <row r="23" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2"/>
+      <c r="B23" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2"/>
+      <c r="D24" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" t="s">
+      <c r="H24" t="s">
         <v>39</v>
       </c>
-      <c r="F16" t="s">
+      <c r="I24" t="s">
         <v>40</v>
       </c>
-      <c r="G16" t="s">
+    </row>
+    <row r="25" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2"/>
+      <c r="D25" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="I25" t="s">
         <v>42</v>
       </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" t="s">
+    </row>
+    <row r="26" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2"/>
+      <c r="D26" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" t="s">
         <v>43</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
+    <row r="27" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2"/>
+      <c r="B27" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2"/>
+      <c r="D28" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" t="s">
         <v>45</v>
       </c>
-      <c r="F18" t="s">
+      <c r="I28" t="s">
         <v>46</v>
       </c>
-      <c r="G18" t="s">
+      <c r="J28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+    <row r="29" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="2"/>
+      <c r="B29" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1040,176 +1144,183 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
         <v>58</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
         <v>59</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C7" t="s">
         <v>60</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
         <v>61</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="9" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
         <v>63</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="10" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
         <v>65</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="11" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
         <v>67</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B12" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D12" t="s">
         <v>69</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D13" t="s">
         <v>71</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B15" t="s">
         <v>73</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="16" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
         <v>75</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="17" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" t="s">
         <v>77</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D17" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1219,82 +1330,85 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="71.33203125" customWidth="1"/>
     <col min="3" max="3" width="43.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
         <v>91</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B6" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C6" t="s">
         <v>93</v>
       </c>
-      <c r="B2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" t="s">
-        <v>105</v>
-      </c>
-    </row>
+    </row>
+    <row r="7" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1304,108 +1418,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>106</v>
+    <row r="1" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B3">
         <v>20130408</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
     </row>
-    <row r="12" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
     </row>
-    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
     </row>
-    <row r="24" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
     </row>
   </sheetData>
